--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Code</t>
   </si>
@@ -165,6 +166,9 @@
     <t>attitude -radial</t>
   </si>
   <si>
+    <t>attitude node</t>
+  </si>
+  <si>
     <t>attitude +target</t>
   </si>
   <si>
@@ -181,6 +185,48 @@
   </si>
   <si>
     <t>attitude -par</t>
+  </si>
+  <si>
+    <t>Extra pushbutton</t>
+  </si>
+  <si>
+    <t>Diagnostics run</t>
+  </si>
+  <si>
+    <t>deg/min</t>
+  </si>
+  <si>
+    <t>orbit height</t>
+  </si>
+  <si>
+    <t>inclination</t>
+  </si>
+  <si>
+    <t>Stage count</t>
+  </si>
+  <si>
+    <t>new apoapsis</t>
+  </si>
+  <si>
+    <t>new periapsis</t>
+  </si>
+  <si>
+    <t>time to circ</t>
+  </si>
+  <si>
+    <t>time to node</t>
+  </si>
+  <si>
+    <t>prograde vel</t>
+  </si>
+  <si>
+    <t>radial vel</t>
+  </si>
+  <si>
+    <t>normal vel</t>
+  </si>
+  <si>
+    <t>Stop all mechjeb operation</t>
   </si>
 </sst>
 </file>
@@ -521,8 +567,8 @@
   <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,6 +668,12 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" t="s">
         <v>34</v>
       </c>
@@ -636,6 +688,15 @@
       <c r="C13">
         <v>2</v>
       </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
@@ -650,6 +711,18 @@
       <c r="C14">
         <v>3</v>
       </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" t="s">
         <v>36</v>
       </c>
@@ -699,6 +772,12 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
       <c r="J22" t="s">
         <v>37</v>
       </c>
@@ -713,6 +792,12 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
@@ -727,6 +812,12 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
       <c r="J24" t="s">
         <v>39</v>
       </c>
@@ -776,6 +867,21 @@
       <c r="C32">
         <v>4</v>
       </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
@@ -814,6 +920,9 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
@@ -1041,12 +1150,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1060,52 +1169,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1118,8 +1239,11 @@
       <c r="H92" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1132,8 +1256,11 @@
       <c r="H93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1146,8 +1273,11 @@
       <c r="H94" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1160,8 +1290,11 @@
       <c r="H95" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1174,8 +1307,11 @@
       <c r="H96" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1188,37 +1324,67 @@
       <c r="H97" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1226,65 +1392,80 @@
       <c r="H101" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I102">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I103">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1298,7 +1479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1308,8 +1489,11 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1319,8 +1503,11 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1330,8 +1517,11 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1341,8 +1531,11 @@
       <c r="C115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1352,8 +1545,11 @@
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1363,8 +1559,11 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1374,8 +1573,11 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1385,8 +1587,11 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1396,8 +1601,11 @@
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1407,8 +1615,11 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1418,13 +1629,16 @@
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1434,23 +1648,29 @@
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2015,88 +2235,95 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
+      <c r="B256" t="s">
+        <v>57</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
